--- a/medicine/Psychotrope/Old_Potrero/Old_Potrero.xlsx
+++ b/medicine/Psychotrope/Old_Potrero/Old_Potrero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Old Potrero est un whiskey de seigle single malt distillé par Anchor Brewing Company à San Francisco depuis 1993.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le whiskey Old Potrero provient de la volonté de Fritz Maytag, propriétaire de la microbrasserie san-franciscaine Anchor Brewing Company, de reproduire un whiskey dans la tradition américaine prédatant la Prohibition. Du XVIIIe siècle au début du XXe siècle, la plupart des whiskies nord-américains étaient distillés essentiellement à partir de moût de seigle malté, à l'exception des bourbons, produits quasi exclusivement dans le Kentucky à partir du XIXe siècle.
 Après de multiples essais, Fritz Maytag commercialisa les premières bouteilles d'Old Potrero en 1993, et cette eau-de-vie fut le premier whiskey 100 % seigle commercialisé aux États-Unis à partir des années 90.
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Old Potrero, qui doit son nom au quartier san-franciscain de Potrero Hill où est établie la brasserie-distillerie qui le produit, est distillé dans un alambic de cuivre, puis vieilli en fûts de chêne.
 Anchor Distilling Company commercialise plusieurs versions de ce whiskey :
